--- a/RpL35A_mutations_data_code/Plasmidsaurus sequencing/Samples metadata.xlsx
+++ b/RpL35A_mutations_data_code/Plasmidsaurus sequencing/Samples metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/nicky_faber_wur_nl/Documents/PhD/03_Genetic_diversity/r1_r2_PCRs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/nicky_faber_wur_nl/Documents/Paper writing/2025_DrosEU paper/HomingDrive_Heritability/RpL35A_mutations_data_code/Plasmidsaurus sequencing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="523" documentId="8_{0717A4A1-A5F1-8B42-B68C-A5FCA74A615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{955C68ED-EB82-EB4B-85BF-BF6368C9ECCE}"/>
+  <xr:revisionPtr revIDLastSave="534" documentId="8_{0717A4A1-A5F1-8B42-B68C-A5FCA74A615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F84E18D-66F4-A14E-99AD-5A0D60CE5114}"/>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="1800" windowWidth="33720" windowHeight="20640" xr2:uid="{4A1383AE-AA4A-8D46-B30E-A947D5999C8F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4A1383AE-AA4A-8D46-B30E-A947D5999C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
     <t>DNA isolation failed</t>
   </si>
   <si>
-    <t>mutated</t>
+    <t>heterozygous</t>
   </si>
 </sst>
 </file>
@@ -314,23 +314,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,78 +662,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7E61FC-32BF-7B4A-B60F-288D1CDA21EF}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <f>_xlfn.CEILING.MATH(A2/3)</f>
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -746,26 +741,26 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <f t="shared" ref="E3:E66" si="0">_xlfn.CEILING.MATH(A3/3)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -773,26 +768,26 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -800,1922 +795,1922 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5">
-        <v>3</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>7</v>
       </c>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" s="5">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="5">
-        <v>2</v>
-      </c>
-      <c r="J12" s="8" t="s">
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
         <v>9</v>
       </c>
-      <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="5">
-        <v>3</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
         <v>54</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" s="5">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
         <v>10</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8" t="s">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
         <v>11</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="5">
-        <v>2</v>
-      </c>
-      <c r="J15" s="8" t="s">
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>12</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="5">
-        <v>3</v>
-      </c>
-      <c r="J16" s="8" t="s">
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>13</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8" t="s">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
         <v>14</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="5">
-        <v>2</v>
-      </c>
-      <c r="J18" s="8" t="s">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
         <v>15</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="5">
-        <v>3</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="C20" s="5">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
         <v>16</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8" t="s">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="C21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
         <v>17</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="5">
-        <v>2</v>
-      </c>
-      <c r="J21" s="8" t="s">
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="C22" s="5">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
         <v>18</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="5">
-        <v>3</v>
-      </c>
-      <c r="J22" s="8" t="s">
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="C23" s="5">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
         <v>19</v>
       </c>
-      <c r="E23" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F23" s="11" t="s">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="J23" s="8" t="s">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="C24" s="5">
-        <v>2</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
         <v>20</v>
       </c>
-      <c r="E24" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="5">
-        <v>2</v>
-      </c>
-      <c r="J24" s="8" t="s">
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="C25" s="5">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
         <v>21</v>
       </c>
-      <c r="E25" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="5">
-        <v>3</v>
-      </c>
-      <c r="J25" s="8" t="s">
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="C26" s="5">
-        <v>3</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="C27" s="5">
-        <v>3</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="5">
-        <v>2</v>
-      </c>
-      <c r="J27" s="8" t="s">
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="C28" s="5">
-        <v>3</v>
-      </c>
-      <c r="D28" s="5">
-        <v>3</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="5">
-        <v>3</v>
-      </c>
-      <c r="J28" s="8" t="s">
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="C29" s="5">
-        <v>3</v>
-      </c>
-      <c r="D29" s="5">
-        <v>4</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-      <c r="J29" s="8" t="s">
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="C30" s="5">
-        <v>3</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
         <v>5</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="5">
-        <v>2</v>
-      </c>
-      <c r="J30" s="8" t="s">
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="C31" s="5">
-        <v>3</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
         <v>6</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="C32" s="5">
-        <v>3</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
         <v>7</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="5">
-        <v>1</v>
-      </c>
-      <c r="J32" s="8" t="s">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="C33" s="5">
-        <v>3</v>
-      </c>
-      <c r="D33" s="5">
-        <v>8</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="5">
-        <v>2</v>
-      </c>
-      <c r="J33" s="8" t="s">
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="C34" s="5">
-        <v>3</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
         <v>9</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="5">
-        <v>3</v>
-      </c>
-      <c r="J34" s="8" t="s">
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="C35" s="5">
-        <v>3</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
         <v>10</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-      <c r="J35" s="8" t="s">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="C36" s="5">
-        <v>3</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
         <v>11</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="5">
-        <v>2</v>
-      </c>
-      <c r="J36" s="8" t="s">
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="C37" s="5">
-        <v>3</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
         <v>12</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="C38" s="5">
-        <v>3</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
         <v>13</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="5">
-        <v>1</v>
-      </c>
-      <c r="J38" s="8" t="s">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="C39" s="5">
-        <v>3</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
         <v>14</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="5">
-        <v>2</v>
-      </c>
-      <c r="J39" s="8" t="s">
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="C40" s="5">
-        <v>3</v>
-      </c>
-      <c r="D40" s="5">
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
         <v>15</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="5">
-        <v>3</v>
-      </c>
-      <c r="J40" s="8" t="s">
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="J40" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="C41" s="5">
-        <v>3</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
         <v>16</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
-      <c r="J41" s="8" t="s">
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="C42" s="5">
-        <v>3</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
         <v>17</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="C43" s="5">
-        <v>3</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
         <v>18</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="5">
-        <v>3</v>
-      </c>
-      <c r="J43" s="8" t="s">
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="J43" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="C44" s="5">
-        <v>3</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
         <v>19</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="5">
-        <v>1</v>
-      </c>
-      <c r="J44" s="8" t="s">
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="J44" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="C45" s="5">
-        <v>3</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
         <v>20</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="5">
-        <v>2</v>
-      </c>
-      <c r="J45" s="8" t="s">
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="J45" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="C46" s="5">
-        <v>3</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
         <v>21</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="5">
-        <v>3</v>
-      </c>
-      <c r="J46" s="8" t="s">
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="J46" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="5">
-        <v>3</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
         <v>22</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="5">
-        <v>1</v>
-      </c>
-      <c r="H47" s="5">
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
         <v>4.54</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="C48" s="5">
-        <v>3</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
         <v>23</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="5">
-        <v>2</v>
-      </c>
-      <c r="J48" s="8" t="s">
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="5">
-        <v>3</v>
-      </c>
-      <c r="D49" s="5">
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
         <v>24</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="5">
-        <v>3</v>
-      </c>
-      <c r="H49" s="5">
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
         <v>18.7</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" t="s">
         <v>46</v>
       </c>
-      <c r="J49" s="14" t="s">
+      <c r="J49" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="C50" s="5">
-        <v>3</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
         <v>25</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G50" s="5">
-        <v>1</v>
-      </c>
-      <c r="J50" s="8" t="s">
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="C51" s="5">
-        <v>3</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
         <v>26</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="C52" s="5">
-        <v>3</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
         <v>27</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="C53" s="5">
-        <v>3</v>
-      </c>
-      <c r="D53" s="5">
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
         <v>28</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="C54" s="5">
-        <v>3</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
         <v>29</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G54" s="5">
-        <v>2</v>
-      </c>
-      <c r="J54" s="8" t="s">
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="J54" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="C55" s="5">
-        <v>3</v>
-      </c>
-      <c r="D55" s="5">
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
         <v>30</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G55" s="5">
-        <v>3</v>
-      </c>
-      <c r="J55" s="8" t="s">
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="C56" s="5">
-        <v>3</v>
-      </c>
-      <c r="D56" s="5">
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
         <v>31</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="C57" s="5">
-        <v>3</v>
-      </c>
-      <c r="D57" s="5">
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
         <v>32</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="C58" s="5">
-        <v>3</v>
-      </c>
-      <c r="D58" s="5">
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
         <v>33</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="5">
-        <v>3</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
         <v>34</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G59" s="5">
-        <v>1</v>
-      </c>
-      <c r="H59" s="5">
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
         <v>22.8</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" t="s">
         <v>46</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="J59" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="C60" s="5">
-        <v>3</v>
-      </c>
-      <c r="D60" s="5">
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
         <v>35</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G60" s="5">
-        <v>2</v>
-      </c>
-      <c r="J60" s="8" t="s">
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="J60" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="C61" s="5">
-        <v>3</v>
-      </c>
-      <c r="D61" s="5">
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
         <v>36</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G61" s="5">
-        <v>3</v>
-      </c>
-      <c r="J61" s="8" t="s">
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="J61" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="5">
-        <v>4</v>
-      </c>
-      <c r="D62" s="5">
-        <v>1</v>
-      </c>
-      <c r="E62" s="5">
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G62" s="5">
-        <v>1</v>
-      </c>
-      <c r="H62" s="5">
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
         <v>17.100000000000001</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" t="s">
         <v>46</v>
       </c>
-      <c r="J62" s="14" t="s">
+      <c r="J62" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="C63" s="5">
-        <v>4</v>
-      </c>
-      <c r="D63" s="5">
-        <v>2</v>
-      </c>
-      <c r="E63" s="5">
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G63" s="5">
-        <v>2</v>
-      </c>
-      <c r="J63" s="8" t="s">
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="J63" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="C64" s="5">
-        <v>4</v>
-      </c>
-      <c r="D64" s="5">
-        <v>3</v>
-      </c>
-      <c r="E64" s="5">
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G64" s="5">
-        <v>3</v>
-      </c>
-      <c r="J64" s="8" t="s">
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="J64" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="5">
-        <v>4</v>
-      </c>
-      <c r="D65" s="5">
-        <v>4</v>
-      </c>
-      <c r="E65" s="5">
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G65" s="5">
-        <v>1</v>
-      </c>
-      <c r="H65" s="5">
-        <v>2</v>
-      </c>
-      <c r="J65" s="15" t="s">
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="J65" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="C66" s="5">
-        <v>4</v>
-      </c>
-      <c r="D66" s="5">
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
         <v>5</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G66" s="5">
-        <v>2</v>
-      </c>
-      <c r="J66" s="8" t="s">
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="J66" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="C67" s="5">
-        <v>4</v>
-      </c>
-      <c r="D67" s="5">
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
         <v>6</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67">
         <f t="shared" ref="E67:E83" si="1">_xlfn.CEILING.MATH(A67/3)</f>
         <v>22</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="C68" s="5">
-        <v>4</v>
-      </c>
-      <c r="D68" s="5">
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
         <v>7</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="C69" s="5">
-        <v>4</v>
-      </c>
-      <c r="D69" s="5">
-        <v>8</v>
-      </c>
-      <c r="E69" s="5">
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="5">
-        <v>4</v>
-      </c>
-      <c r="D70" s="5">
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
         <v>9</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="5">
-        <v>3</v>
-      </c>
-      <c r="H70" s="5">
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
         <v>0.24</v>
       </c>
-      <c r="J70" s="15" t="s">
+      <c r="J70" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="C71" s="5">
-        <v>4</v>
-      </c>
-      <c r="D71" s="5">
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
         <v>10</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G71" s="5">
-        <v>1</v>
-      </c>
-      <c r="J71" s="8" t="s">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="J71" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="C72" s="5">
-        <v>4</v>
-      </c>
-      <c r="D72" s="5">
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
         <v>11</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G72" s="5">
-        <v>2</v>
-      </c>
-      <c r="J72" s="8" t="s">
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="J72" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="5">
-        <v>4</v>
-      </c>
-      <c r="D73" s="5">
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
         <v>12</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G73" s="5">
-        <v>3</v>
-      </c>
-      <c r="H73" s="5">
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
         <v>3.82</v>
       </c>
-      <c r="J73" s="14" t="s">
+      <c r="J73" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="C74" s="5">
-        <v>4</v>
-      </c>
-      <c r="D74" s="5">
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
         <v>13</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G74" s="5">
-        <v>1</v>
-      </c>
-      <c r="J74" s="8" t="s">
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="J74" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="C75" s="5">
-        <v>4</v>
-      </c>
-      <c r="D75" s="5">
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
         <v>14</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G75" s="5">
-        <v>2</v>
-      </c>
-      <c r="J75" s="8" t="s">
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="J75" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="C76" s="5">
-        <v>4</v>
-      </c>
-      <c r="D76" s="5">
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
         <v>15</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="5">
-        <v>4</v>
-      </c>
-      <c r="D77" s="5">
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
         <v>16</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G77" s="5">
-        <v>1</v>
-      </c>
-      <c r="H77" s="5">
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
         <v>0.9</v>
       </c>
-      <c r="J77" s="15" t="s">
+      <c r="J77" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="C78" s="5">
-        <v>4</v>
-      </c>
-      <c r="D78" s="5">
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
         <v>17</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="F78" s="13" t="s">
+      <c r="F78" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G78" s="5">
-        <v>1</v>
-      </c>
-      <c r="J78" s="8" t="s">
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="J78" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" t="s">
         <v>58</v>
       </c>
-      <c r="C79" s="5">
-        <v>4</v>
-      </c>
-      <c r="D79" s="5">
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
         <v>18</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="F79" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G79" s="5">
-        <v>1</v>
-      </c>
-      <c r="H79" s="5">
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
         <v>6.58</v>
       </c>
-      <c r="J79" s="15" t="s">
+      <c r="J79" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="C80" s="5">
-        <v>4</v>
-      </c>
-      <c r="D80" s="5">
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
         <v>19</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="5">
-        <v>4</v>
-      </c>
-      <c r="D81" s="5">
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
         <v>20</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G81" s="5">
-        <v>2</v>
-      </c>
-      <c r="H81" s="5">
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
         <v>5.68</v>
       </c>
-      <c r="J81" s="14" t="s">
+      <c r="J81" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="C82" s="5">
-        <v>4</v>
-      </c>
-      <c r="D82" s="5">
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
         <v>21</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="C83" s="5">
-        <v>4</v>
-      </c>
-      <c r="D83" s="5">
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
         <v>22</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83">
         <v>2</v>
       </c>
     </row>
